--- a/openpyxl_test.xlsx
+++ b/openpyxl_test.xlsx
@@ -1,44 +1,394 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\workspace\py_test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C61133B-D24D-4401-AA6F-A959AB6E9B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="test" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
+    <sheet name="030106-01" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="104">
+  <si>
+    <t>입력테스트2</t>
+  </si>
+  <si>
+    <t>이용일</t>
+  </si>
+  <si>
+    <t>이용시간</t>
+  </si>
+  <si>
+    <t>이용하신곳</t>
+  </si>
+  <si>
+    <t>국내이용금액(원)</t>
+  </si>
+  <si>
+    <t>개수</t>
+  </si>
+  <si>
+    <t>총가격(단가*인원)</t>
+  </si>
+  <si>
+    <t>합계</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>19:36</t>
+  </si>
+  <si>
+    <t>메가엠지씨커피 목동센트럴아이파크점</t>
+  </si>
+  <si>
+    <t>19:27</t>
+  </si>
+  <si>
+    <t>월드마트</t>
+  </si>
+  <si>
+    <t>2025-06-29</t>
+  </si>
+  <si>
+    <t>12:03</t>
+  </si>
+  <si>
+    <t>2025-06-28</t>
+  </si>
+  <si>
+    <t>21:43</t>
+  </si>
+  <si>
+    <t>20:09</t>
+  </si>
+  <si>
+    <t>홍두께손칼국수</t>
+  </si>
+  <si>
+    <t>16:51</t>
+  </si>
+  <si>
+    <t>달달 2호점</t>
+  </si>
+  <si>
+    <t>13:23</t>
+  </si>
+  <si>
+    <t>09:07</t>
+  </si>
+  <si>
+    <t>홍가네 김밥</t>
+  </si>
+  <si>
+    <t>2025-06-27</t>
+  </si>
+  <si>
+    <t>14:17</t>
+  </si>
+  <si>
+    <t>현대해상화재보험</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>(주)자연에너지 남부주유소</t>
+  </si>
+  <si>
+    <t>2025-06-25</t>
+  </si>
+  <si>
+    <t>22:07</t>
+  </si>
+  <si>
+    <t>황금올리브치킨</t>
+  </si>
+  <si>
+    <t>2025-06-24</t>
+  </si>
+  <si>
+    <t>19:24</t>
+  </si>
+  <si>
+    <t>KB아파트관리비</t>
+  </si>
+  <si>
+    <t>09:51</t>
+  </si>
+  <si>
+    <t>엘지전자</t>
+  </si>
+  <si>
+    <t>2025-06-22</t>
+  </si>
+  <si>
+    <t>19:55</t>
+  </si>
+  <si>
+    <t>동일석유(주)개나리주유소</t>
+  </si>
+  <si>
+    <t>18:14</t>
+  </si>
+  <si>
+    <t>드림마트</t>
+  </si>
+  <si>
+    <t>15:02</t>
+  </si>
+  <si>
+    <t>로뎀나무의그늘2관학원</t>
+  </si>
+  <si>
+    <t>14:59</t>
+  </si>
+  <si>
+    <t>14:58</t>
+  </si>
+  <si>
+    <t>로뎀과학전문학원</t>
+  </si>
+  <si>
+    <t>2025-06-21</t>
+  </si>
+  <si>
+    <t>15:38</t>
+  </si>
+  <si>
+    <t>2025-06-19</t>
+  </si>
+  <si>
+    <t>20:26</t>
+  </si>
+  <si>
+    <t>꼬꼬와톡</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>12:40</t>
+  </si>
+  <si>
+    <t>씨앤씨학원</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>19:41</t>
+  </si>
+  <si>
+    <t>샤브향기 주식회사</t>
+  </si>
+  <si>
+    <t>10:25</t>
+  </si>
+  <si>
+    <t>10:11</t>
+  </si>
+  <si>
+    <t>얌샘(신정네거리점)</t>
+  </si>
+  <si>
+    <t>2025-06-14</t>
+  </si>
+  <si>
+    <t>20:57</t>
+  </si>
+  <si>
+    <t>메가 MGC 커피_KBPay 리워드_3</t>
+  </si>
+  <si>
+    <t>19:50</t>
+  </si>
+  <si>
+    <t>크래프트한스</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>21:44</t>
+  </si>
+  <si>
+    <t>㈜이마트목동점</t>
+  </si>
+  <si>
+    <t>08:16</t>
+  </si>
+  <si>
+    <t>카카오선물하기_카카오페이</t>
+  </si>
+  <si>
+    <t>08:10</t>
+  </si>
+  <si>
+    <t>액정보호 필름</t>
+  </si>
+  <si>
+    <t>2025-06-11</t>
+  </si>
+  <si>
+    <t>07:21</t>
+  </si>
+  <si>
+    <t>SK텔레콤-자동납부</t>
+  </si>
+  <si>
+    <t>07:15</t>
+  </si>
+  <si>
+    <t>2025-06-10</t>
+  </si>
+  <si>
+    <t>14:01</t>
+  </si>
+  <si>
+    <t>(주)귀뚜라미에너지_자동납부</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>21:51</t>
+  </si>
+  <si>
+    <t>2025-06-07</t>
+  </si>
+  <si>
+    <t>23:46</t>
+  </si>
+  <si>
+    <t>더블유컨셉코리아</t>
+  </si>
+  <si>
+    <t>22:21</t>
+  </si>
+  <si>
+    <t>맥도날드 신월남부DT</t>
+  </si>
+  <si>
+    <t>2025-06-06</t>
+  </si>
+  <si>
+    <t>15:15</t>
+  </si>
+  <si>
+    <t>15:13</t>
+  </si>
+  <si>
+    <t>모두랑 즉석 떡볶이</t>
+  </si>
+  <si>
+    <t>09:18</t>
+  </si>
+  <si>
+    <t>네이버페이</t>
+  </si>
+  <si>
+    <t>2025-06-03</t>
+  </si>
+  <si>
+    <t>16:59</t>
+  </si>
+  <si>
+    <t>(주)찬이네</t>
+  </si>
+  <si>
+    <t>2025-06-01</t>
+  </si>
+  <si>
+    <t>19:21</t>
+  </si>
+  <si>
+    <t>롯데마트</t>
+  </si>
+  <si>
+    <t>10:02</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>㈜이마트동탄점</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,8 +399,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F7"/>
+        <bgColor rgb="FFF7F7F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -58,86 +420,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -425,480 +776,1436 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="1">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>16</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>17</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>17</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>18</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>18</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>19</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="1">
         <v>19</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>20</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="1">
         <v>20</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>21</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>20</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="1">
         <v>21</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>22</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>16</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>21</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="1">
         <v>22</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>23</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>16</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>17</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>22</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="1">
         <v>23</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>24</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>17</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>18</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="1">
         <v>24</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="1">
         <v>25</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>18</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="1">
         <v>19</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>24</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="1">
         <v>25</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>26</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="1">
         <v>27</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>32</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>64</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>128</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>256</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>입력테스트2</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>입력테스트2</t>
-        </is>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>2</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C1">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1">
+        <f>SUM(D:D)</f>
+        <v>2669499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F44" si="0">D2*E2</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4">
+        <v>18900</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>56700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5920</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>11840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4">
+        <v>18900</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>56700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4">
+        <v>17000</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8400</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5500</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4">
+        <v>14000</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4">
+        <v>124150</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>372450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4">
+        <v>55460</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>110920</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4">
+        <v>23000</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4">
+        <v>198920</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>198920</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="4">
+        <v>87500</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="4">
+        <v>57580</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>57580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4">
+        <v>345000</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>690000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="4">
+        <v>287500</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>862500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="4">
+        <v>287500</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>287500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5500</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="4">
+        <v>19000</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="4">
+        <v>330000</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="4">
+        <v>58700</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>117400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="4">
+        <v>12510</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>25020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="4">
+        <v>12000</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="4">
+        <v>40000</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="4">
+        <v>65870</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>65870</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="4">
+        <v>59460</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>178380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="4">
+        <v>5900</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="4">
+        <v>15600</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="4">
+        <v>57720</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>57720</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="4">
+        <v>67730</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>135460</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="4">
+        <v>71460</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>71460</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="4">
+        <v>19000</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="4">
+        <v>55959</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>55959</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="4">
+        <v>18300</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="4">
+        <v>31990</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>95970</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="4">
+        <v>8500</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="4">
+        <v>32900</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>65800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="4">
+        <v>20000</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="4">
+        <v>36340</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>72680</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="4">
+        <v>12000</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="6">
+        <v>50830</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>152490</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB061466-FF3A-460C-80BE-96498D86B830}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>